--- a/IM증권/엑셀 실습_data.xlsx
+++ b/IM증권/엑셀 실습_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\강의안\IM증권\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B973A7-3B2A-4812-A533-23F5B572AFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E29603-3F4A-4173-9915-C08026A2EA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8163F760-502D-4F76-BF2E-D6F04DDE4548}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{8163F760-502D-4F76-BF2E-D6F04DDE4548}"/>
   </bookViews>
   <sheets>
     <sheet name="날짜        제품명  판매량  매출     지역  " sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -53,91 +53,92 @@
     <t>제품명</t>
   </si>
   <si>
-    <t>판매량</t>
+    <t>지역</t>
+  </si>
+  <si>
+    <t>할인율</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>온라인</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>오프라인</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>전화</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>법인</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>제품 A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>매출</t>
-  </si>
-  <si>
-    <t>지역</t>
-  </si>
-  <si>
-    <t>할인율</t>
-  </si>
-  <si>
-    <t>판매채널</t>
-  </si>
-  <si>
-    <t>고객유형</t>
-  </si>
-  <si>
-    <t>재고량</t>
-  </si>
-  <si>
-    <t>제품</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>온라인</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>오프라인</t>
-  </si>
-  <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>전화</t>
-  </si>
-  <si>
-    <t>주문</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>법인</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>울산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -272,11 +273,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -288,37 +289,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,21 +647,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76598C2B-7AC9-4C27-B76C-C25D76B1819F}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,431 +668,341 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>45294</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>45306</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4500000</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>120</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="9">
-        <v>45306</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11">
-        <v>450</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4500000</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>45333</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7">
-        <v>300</v>
-      </c>
-      <c r="E4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
         <v>3000000</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.15</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>45373</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
-        <v>45373</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11">
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C5" s="9">
         <v>1200000</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
         <v>0.05</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>45396</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2700000</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7">
-        <v>250</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2700000</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>45442</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3200000</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
-        <v>45442</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11">
-        <v>320</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3200000</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>45453</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7">
-        <v>150</v>
-      </c>
-      <c r="E8" s="7">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
         <v>1800000</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
         <v>45498</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
-        <v>400</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
         <v>5000000</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>45518</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7">
-        <v>130</v>
-      </c>
-      <c r="E10" s="7">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
         <v>1600000</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.05</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
         <v>45540</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11">
-        <v>270</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
         <v>2800000</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>45587</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>45607</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
-        <v>110</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1300000</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
-        <v>45607</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11">
-        <v>220</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="C13" s="9">
         <v>2400000</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
         <v>0.15</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>45655</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2100000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7">
-        <v>190</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2100000</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="13">
-        <v>45657</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1">
-        <v>500</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6000000</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
